--- a/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
+++ b/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ROTMILANZENTRUM\Rotmilanzentrum\Telemetrie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/steffen_oppel_vogelwarte_ch/Documents/REKI/Analysis/NestTool2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35582BBF-DC5B-43F5-A2D8-A938D1BA65E3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="76">
   <si>
     <t>Bird_ID</t>
   </si>
@@ -263,15 +253,12 @@
   </si>
   <si>
     <t>n_chicks nicht sicher bestimmbar; gleiches Tier wie "Halberstadt Bahnhof" mit neuem Sender</t>
-  </si>
-  <si>
-    <t>m?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
@@ -310,14 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,24 +614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -736,7 +722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -755,18 +741,16 @@
       <c r="F3">
         <v>2023</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
@@ -776,29 +760,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>181038</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>2023</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
         <v>2023</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
@@ -820,7 +804,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -867,7 +851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -911,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -958,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1178,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1269,7 +1253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1313,7 +1297,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1357,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1401,7 +1385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1445,7 +1429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +1473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1533,7 +1517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1541,7 +1525,7 @@
         <v>181080</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>2019</v>
@@ -1577,7 +1561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1585,7 +1569,7 @@
         <v>181080</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>2019</v>
@@ -1608,7 +1592,7 @@
       <c r="J22">
         <v>11.173610999999999</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
@@ -1621,7 +1605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1665,7 +1649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +1693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1841,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1885,7 +1869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +1957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2017,7 +2001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2061,7 +2045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +2089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2149,7 +2133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2168,22 +2152,22 @@
       <c r="F35">
         <v>2023</v>
       </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>51.925918000000003</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35">
         <v>11.05171</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>0</v>
       </c>
       <c r="N35" t="s">
@@ -2193,7 +2177,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2237,7 +2221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2275,7 +2259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2319,7 +2303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2344,12 +2328,10 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>0</v>
       </c>
       <c r="N39" t="s">
@@ -2359,7 +2341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2406,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2453,7 +2435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2478,16 +2460,16 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42">
         <v>51.889985000000003</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42">
         <v>11.064992999999999</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
@@ -2500,7 +2482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2544,7 +2526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2588,7 +2570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2635,7 +2617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2682,7 +2664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2729,7 +2711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2773,7 +2755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +2799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +2843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2905,7 +2887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2949,7 +2931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2987,26 +2969,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>181046</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
         <v>2018</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
         <v>2023</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
@@ -3031,7 +3013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -3075,7 +3057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -3100,16 +3082,16 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56">
         <v>52.306949000000003</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56">
         <v>11.577503999999999</v>
       </c>
-      <c r="K56" s="3">
-        <v>2</v>
-      </c>
-      <c r="L56" s="3">
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
         <v>0</v>
       </c>
       <c r="N56" t="s">
@@ -3119,7 +3101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -3163,7 +3145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3182,22 +3164,22 @@
       <c r="F58">
         <v>2023</v>
       </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>51.988765999999998</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58">
         <v>11.25046</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
@@ -3210,7 +3192,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -3254,7 +3236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -3298,7 +3280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -3345,7 +3327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3392,7 +3374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3439,7 +3421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -3486,7 +3468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -3533,7 +3515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3577,7 +3559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -3621,7 +3603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>58</v>
       </c>
@@ -3668,7 +3650,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -3715,7 +3697,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -3762,7 +3744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -3803,7 +3785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +3829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>34</v>
       </c>
@@ -3894,7 +3876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3938,7 +3920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>34</v>
       </c>
@@ -3982,7 +3964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -4026,7 +4008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>29</v>
       </c>
@@ -4070,7 +4052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>29</v>
       </c>
@@ -4114,7 +4096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>29</v>
       </c>
@@ -4158,7 +4140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -4202,7 +4184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -4246,7 +4228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -4290,7 +4272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -4334,7 +4316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -4378,7 +4360,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -4422,7 +4404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -4466,7 +4448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -4513,7 +4495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -4560,7 +4542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -4604,7 +4586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -4648,7 +4630,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -4692,7 +4674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -4736,7 +4718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -4783,7 +4765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -4830,7 +4812,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>59</v>
       </c>
@@ -4877,7 +4859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>59</v>
       </c>
@@ -4921,7 +4903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>60</v>
       </c>
@@ -4959,7 +4941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>60</v>
       </c>
@@ -4998,43 +4980,43 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:O102">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O102">
     <sortCondition ref="A2:A102"/>
   </sortState>
   <dataValidations count="12">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest latitude in decimal degrees (WGS84)" sqref="I1 I9:I10 I12:I1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest latitude in decimal degrees (WGS84)" sqref="I1 I9:I10 I12:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>30</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest longitude in decimal degrees (WGS84)" sqref="J1 J9:J10 J12:J14 J21:J1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest longitude in decimal degrees (WGS84)" sqref="J1 J9:J10 J12:J14 J21:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for a bird, should match with info provided in Movebank" sqref="A1:A1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for the tag, should match with info provided in Movebank" sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sex of the bird (m or f)" sqref="C1:C1048576"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Year when the bird was tagged" sqref="D1:D1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for a bird, should match with info provided in Movebank" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for the tag, should match with info provided in Movebank" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sex of the bird (m or f)" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Year when the bird was tagged" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>2000</formula1>
       <formula2>2023</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Age of the bird (in years) at the time of tagging" sqref="E1:E1048576"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Current year for which home range and nest information is provided" sqref="F1:F1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Age of the bird (in years) at the time of tagging" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Current year for which home range and nest information is provided" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>2000</formula1>
       <formula2>2023</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird exhibit home ranging behaviour in this year (1 = yes, 0 = no)" sqref="G1:G1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird exhibit home ranging behaviour in this year (1 = yes, 0 = no)" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird initiate a breeding attempt (e.g. a nest with eggs) in this year (1=yes, 0=no)?" sqref="H1:H1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird initiate a breeding attempt (e.g. a nest with eggs) in this year (1=yes, 0=no)?" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of chicks observed in the nest" sqref="K1:K1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of chicks observed in the nest" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of fledglings that fledged from the nest (if the nest failed enter a 0)" sqref="L1:L1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of fledglings that fledged from the nest (if the nest failed enter a 0)" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>

--- a/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
+++ b/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/steffen_oppel_vogelwarte_ch/Documents/REKI/Analysis/NestTool2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35582BBF-DC5B-43F5-A2D8-A938D1BA65E3}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72A2D7BF-51C1-48AD-A007-EA6E256935E3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$98</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -84,9 +87,6 @@
     <t>Mahndorf</t>
   </si>
   <si>
-    <t>Harsleben Hammelsberg</t>
-  </si>
-  <si>
     <t>Harsleben Sauteichsgraben</t>
   </si>
   <si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>n_chicks nicht sicher bestimmbar; gleiches Tier wie "Halberstadt Bahnhof" mit neuem Sender</t>
+  </si>
+  <si>
+    <t>Harsleben Hammmelsberg</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,24 +673,24 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>192164</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>2019</v>
@@ -716,21 +720,21 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>192164</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>2019</v>
@@ -754,21 +758,21 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>181038</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -798,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -842,13 +846,13 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -889,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -933,13 +937,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -980,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1024,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1068,10 +1072,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1112,15 +1116,15 @@
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>20329</v>
@@ -1156,15 +1160,15 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>20329</v>
@@ -1200,15 +1204,15 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>20329</v>
@@ -1244,18 +1248,18 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>20330</v>
@@ -1291,15 +1295,15 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>212786</v>
@@ -1335,15 +1339,15 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>212786</v>
@@ -1379,15 +1383,15 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>212786</v>
@@ -1423,15 +1427,15 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>212787</v>
@@ -1467,15 +1471,15 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>212787</v>
@@ -1511,15 +1515,15 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>181080</v>
@@ -1555,15 +1559,15 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>181080</v>
@@ -1599,15 +1603,15 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>20253</v>
@@ -1643,15 +1647,15 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>6073</v>
@@ -1687,15 +1691,15 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>6073</v>
@@ -1731,15 +1735,15 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>6073</v>
@@ -1775,15 +1779,15 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>6073</v>
@@ -1819,15 +1823,15 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>4975</v>
@@ -1863,15 +1867,15 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>4975</v>
@@ -1907,15 +1911,15 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>4975</v>
@@ -1951,15 +1955,15 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>4975</v>
@@ -1995,18 +1999,18 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -2039,18 +2043,18 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
         <v>39</v>
-      </c>
-      <c r="O32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -2083,18 +2087,18 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
         <v>39</v>
-      </c>
-      <c r="O33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -2127,18 +2131,18 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" t="s">
         <v>39</v>
-      </c>
-      <c r="O34" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -2171,18 +2175,18 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" t="s">
         <v>39</v>
-      </c>
-      <c r="O35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -2215,18 +2219,18 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="s">
         <v>39</v>
-      </c>
-      <c r="O36" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -2253,18 +2257,18 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" t="s">
         <v>39</v>
-      </c>
-      <c r="O37" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -2297,18 +2301,18 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" t="s">
         <v>39</v>
-      </c>
-      <c r="O38" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
@@ -2335,15 +2339,15 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" t="s">
         <v>39</v>
-      </c>
-      <c r="O39" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>21215</v>
@@ -2379,18 +2383,18 @@
         <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>21215</v>
@@ -2426,18 +2430,18 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>21215</v>
@@ -2473,18 +2477,18 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B43">
         <v>4975</v>
@@ -2520,15 +2524,15 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B44">
         <v>4975</v>
@@ -2564,15 +2568,15 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>20254</v>
@@ -2608,18 +2612,18 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>212785</v>
@@ -2655,18 +2659,18 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>212785</v>
@@ -2702,18 +2706,18 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>4977</v>
@@ -2749,15 +2753,15 @@
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>4977</v>
@@ -2793,15 +2797,15 @@
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
         <v>4977</v>
@@ -2837,15 +2841,15 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>4977</v>
@@ -2881,15 +2885,15 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>4977</v>
@@ -2925,15 +2929,15 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>4977</v>
@@ -2963,15 +2967,15 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>181046</v>
@@ -3007,15 +3011,15 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>181053</v>
@@ -3051,15 +3055,15 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>181053</v>
@@ -3095,15 +3099,15 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>181099</v>
@@ -3139,15 +3143,15 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>181099</v>
@@ -3183,13 +3187,13 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -3230,10 +3234,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -3274,10 +3278,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -3318,13 +3322,13 @@
         <v>3</v>
       </c>
       <c r="M61" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" t="s">
         <v>37</v>
       </c>
-      <c r="N61" t="s">
-        <v>38</v>
-      </c>
       <c r="O61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -3365,18 +3369,18 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>192153</v>
@@ -3412,18 +3416,18 @@
         <v>0</v>
       </c>
       <c r="M63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>4977</v>
@@ -3459,18 +3463,18 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65">
         <v>5046</v>
@@ -3506,18 +3510,18 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66">
         <v>5046</v>
@@ -3553,15 +3557,15 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67">
         <v>5046</v>
@@ -3597,18 +3601,18 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
         <v>12</v>
@@ -3641,18 +3645,18 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N68" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68" t="s">
         <v>39</v>
-      </c>
-      <c r="O68" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B69">
         <v>20225</v>
@@ -3688,18 +3692,18 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>20225</v>
@@ -3735,18 +3739,18 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71">
         <v>20225</v>
@@ -3776,18 +3780,18 @@
         <v>11.13444</v>
       </c>
       <c r="M71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72">
         <v>6074</v>
@@ -3823,15 +3827,15 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>6074</v>
@@ -3867,18 +3871,18 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74">
         <v>6074</v>
@@ -3914,15 +3918,15 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>6074</v>
@@ -3958,15 +3962,15 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76">
         <v>20255</v>
@@ -4002,15 +4006,15 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77">
         <v>20255</v>
@@ -4046,15 +4050,15 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>20255</v>
@@ -4090,15 +4094,15 @@
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O78" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79">
         <v>20255</v>
@@ -4134,21 +4138,21 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O79" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80">
         <v>192163</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D80">
         <v>2019</v>
@@ -4178,21 +4182,21 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B81">
         <v>192163</v>
       </c>
       <c r="C81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D81">
         <v>2019</v>
@@ -4222,15 +4226,15 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82">
         <v>19187</v>
@@ -4266,15 +4270,15 @@
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B83">
         <v>19187</v>
@@ -4310,15 +4314,15 @@
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B84">
         <v>19187</v>
@@ -4354,15 +4358,15 @@
         <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B85">
         <v>22113</v>
@@ -4398,15 +4402,15 @@
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B86">
         <v>22113</v>
@@ -4442,15 +4446,15 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87">
         <v>4976</v>
@@ -4486,18 +4490,18 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O87" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88">
         <v>4976</v>
@@ -4533,13 +4537,13 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -4580,10 +4584,10 @@
         <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -4624,10 +4628,10 @@
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -4668,10 +4672,10 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -4712,15 +4716,15 @@
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <v>9910</v>
@@ -4756,18 +4760,18 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94">
         <v>9910</v>
@@ -4803,18 +4807,18 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B95">
         <v>181048</v>
@@ -4850,18 +4854,18 @@
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96">
         <v>181048</v>
@@ -4897,15 +4901,15 @@
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B97">
         <v>181097</v>
@@ -4935,15 +4939,15 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B98">
         <v>181097</v>
@@ -4973,10 +4977,10 @@
         <v>0</v>
       </c>
       <c r="N98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
+++ b/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/steffen_oppel_vogelwarte_ch/Documents/REKI/Analysis/NestTool2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72A2D7BF-51C1-48AD-A007-EA6E256935E3}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC628A61-40B5-4479-8CA1-3F5B65C36B1B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="76">
   <si>
     <t>Bird_ID</t>
   </si>
@@ -265,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +278,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,10 +306,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,24 +627,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,4384 +653,4394 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2">
         <v>192164</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3">
+        <v>1933</v>
+      </c>
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2019</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>2022</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>51.717922999999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>11.490428</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3">
         <v>192164</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3">
+        <v>1933</v>
+      </c>
+      <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2019</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>2023</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
       <c r="B4">
         <v>181038</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3">
+        <v>8070</v>
+      </c>
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2023</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>2023</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>52.367432000000001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>11.990365000000001</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
       <c r="L4">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
         <v>4976</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
         <v>2017</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
         <v>2017</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>51.910615999999997</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>11.070404999999999</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>25</v>
       </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <v>4976</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>2017</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>2018</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>51.910615999999997</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>11.070404999999999</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
-      <c r="N6" t="s">
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
         <v>4978</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
         <v>2017</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
         <v>2017</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>51.908504000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11.065609</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>21</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>25</v>
       </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
         <v>4978</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
         <v>2017</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
         <v>2018</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>51.908504000000001</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>11.065609</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
       <c r="L8">
         <v>2</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
         <v>25</v>
       </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>4978</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
         <v>2017</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>2019</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>51.909619999999997</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11.067663</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
       </c>
       <c r="L9">
         <v>3</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
         <v>25</v>
       </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
         <v>4978</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
         <v>2017</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
         <v>2020</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>51.908504000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>11.065609</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
       </c>
       <c r="L10">
         <v>3</v>
       </c>
-      <c r="N10" t="s">
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
         <v>25</v>
       </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
         <v>4978</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
         <v>2017</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>2021</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>51.908504000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>11.065609</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
         <v>2</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
         <v>25</v>
       </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="B12">
         <v>20329</v>
       </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
         <v>2021</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
         <v>2021</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
         <v>52.118816000000002</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11.311572999999999</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
         <v>2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
         <v>37</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
       <c r="B13">
         <v>20329</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
         <v>2021</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13">
         <v>2022</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>52.118411000000002</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11.310767999999999</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
       <c r="B14">
         <v>20329</v>
       </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
         <v>2021</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14">
         <v>2023</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>52.118411000000002</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>11.310767999999999</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>72</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>37</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15">
         <v>20330</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2021</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15">
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15">
         <v>2021</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>52.118816000000002</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>11.311572999999999</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
       <c r="L15">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
         <v>37</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>46</v>
       </c>
       <c r="B16">
         <v>212786</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2021</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16">
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16">
         <v>2021</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>51.996158000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11.075559999999999</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
         <v>52</v>
       </c>
-      <c r="O16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17">
         <v>212786</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2021</v>
       </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
         <v>2022</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>51.979517999999999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>11.058571000000001</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="O17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
       <c r="B18">
         <v>212786</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2021</v>
       </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18">
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18">
         <v>2023</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>51.976816999999997</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>11.069826000000001</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>52</v>
       </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
       <c r="B19">
         <v>212787</v>
       </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
         <v>2021</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
         <v>2021</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>51.996158000000001</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>11.075559999999999</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="N19" t="s">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>52</v>
       </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20">
         <v>212787</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
         <v>2021</v>
       </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20">
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
         <v>2022</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>51.979517999999999</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>11.058571000000001</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>52</v>
       </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>60</v>
       </c>
       <c r="B21">
         <v>181080</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
         <v>2019</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>2022</v>
       </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>51.914064000000003</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>11.173927000000001</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
         <v>52</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
       <c r="B22">
         <v>181080</v>
       </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
         <v>2019</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>2023</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>51.918675999999998</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>11.173610999999999</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="N22" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>52</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>20253</v>
       </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
         <v>2020</v>
       </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23">
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
         <v>2020</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>51.895715000000003</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>11.085591000000001</v>
       </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
       <c r="L23">
         <v>2</v>
       </c>
-      <c r="N23" t="s">
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
         <v>37</v>
       </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24">
         <v>6073</v>
       </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
         <v>2018</v>
       </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24">
         <v>2018</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
         <v>51.874704999999999</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>11.038474000000001</v>
       </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
       <c r="L24">
         <v>2</v>
       </c>
-      <c r="N24" t="s">
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
         <v>25</v>
       </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25">
         <v>6073</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
         <v>2018</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25">
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25">
         <v>2019</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>51.874704999999999</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>11.038474000000001</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="N25" t="s">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
         <v>25</v>
       </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26">
         <v>6073</v>
       </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
         <v>2018</v>
       </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
         <v>2020</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>51.874704999999999</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>11.038474000000001</v>
       </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
       <c r="L26">
         <v>2</v>
       </c>
-      <c r="N26" t="s">
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
         <v>25</v>
       </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27">
         <v>6073</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
         <v>2018</v>
       </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27">
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
         <v>2021</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>51.874704999999999</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>11.038474000000001</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="N27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>25</v>
       </c>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
         <v>4975</v>
       </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
         <v>2020</v>
       </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
         <v>2020</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
         <v>51.87509</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>11.037108</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
       </c>
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="N28" t="s">
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
         <v>25</v>
       </c>
-      <c r="O28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
       <c r="B29">
         <v>4975</v>
       </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
         <v>2020</v>
       </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29">
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29">
         <v>2021</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
         <v>51.87509</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>11.037108</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
       <c r="L29">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
         <v>25</v>
       </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
         <v>4975</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
         <v>2020</v>
       </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30">
         <v>2022</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>51.874704999999999</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>11.038474000000001</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
       <c r="L30">
         <v>2</v>
       </c>
-      <c r="N30" t="s">
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
         <v>25</v>
       </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
         <v>4975</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
         <v>2020</v>
       </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31">
         <v>2023</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>51.874704999999999</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>11.038474000000001</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
       <c r="L31">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>25</v>
       </c>
-      <c r="O31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32">
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32">
         <v>2017</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>2020</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>51.925918000000003</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>11.05171</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
       <c r="L32">
         <v>1</v>
       </c>
-      <c r="N32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>38</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
         <v>2017</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>2021</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
         <v>51.925918000000003</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>11.05171</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>38</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
         <v>2017</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>2022</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>51.925918000000003</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>11.05171</v>
       </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
       <c r="L34">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
         <v>38</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
         <v>2017</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
       <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>2023</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>51.925918000000003</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>11.05171</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
       <c r="L35">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>38</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36">
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
         <v>2017</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
       <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>2020</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>51.957996000000001</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>11.004486999999999</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
         <v>38</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
         <v>2017</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2021</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="N37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
         <v>38</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
         <v>2017</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>2022</v>
       </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>51.959867000000003</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>11.025923000000001</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>38</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
         <v>2017</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
       <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>2023</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>38</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40">
         <v>21215</v>
       </c>
-      <c r="C40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
         <v>2021</v>
       </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40">
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40">
         <v>2021</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
         <v>51.899082</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>11.111636000000001</v>
       </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
       <c r="L40">
         <v>2</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
         <v>55</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>37</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>54</v>
       </c>
       <c r="B41">
         <v>21215</v>
       </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
         <v>2021</v>
       </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41">
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41">
         <v>2022</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>51.900872</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>11.111783000000001</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>55</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>37</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
       <c r="B42">
         <v>21215</v>
       </c>
-      <c r="C42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
         <v>2021</v>
       </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42">
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42">
         <v>2023</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>51.889985000000003</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>11.064992999999999</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
       <c r="L42">
         <v>1</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>74</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>37</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>75</v>
       </c>
       <c r="B43">
         <v>4975</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>2018</v>
       </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43">
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43">
         <v>2018</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>51.859909000000002</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>11.083515</v>
       </c>
-      <c r="K43">
-        <v>2</v>
-      </c>
       <c r="L43">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
         <v>25</v>
       </c>
-      <c r="O43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
       <c r="B44">
         <v>4975</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>2018</v>
       </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44">
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
         <v>2019</v>
       </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
         <v>51.864255</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>11.071018</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="N44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>25</v>
       </c>
-      <c r="O44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>20254</v>
       </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
         <v>2020</v>
       </c>
-      <c r="E45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45">
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45">
         <v>2020</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
         <v>51.871260999999997</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>11.124381</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
         <v>21</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>37</v>
       </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>212785</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>2021</v>
       </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46">
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46">
         <v>2021</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>51.871260999999997</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>11.124381</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
       <c r="L46">
         <v>1</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
         <v>21</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>52</v>
       </c>
-      <c r="O46" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>212785</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>2021</v>
       </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47">
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47">
         <v>2022</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
         <v>51.871260999999997</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>11.124381</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>21</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>52</v>
       </c>
-      <c r="O47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48">
         <v>4977</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>2017</v>
       </c>
-      <c r="E48" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48">
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48">
         <v>2017</v>
       </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
       <c r="H48">
         <v>1</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
         <v>51.879795999999999</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>11.090591</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
       </c>
       <c r="L48">
         <v>3</v>
       </c>
-      <c r="N48" t="s">
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
         <v>25</v>
       </c>
-      <c r="O48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49">
         <v>4977</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>2017</v>
       </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49">
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49">
         <v>2018</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>51.882660000000001</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>11.086406999999999</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
       </c>
       <c r="L49">
         <v>3</v>
       </c>
-      <c r="N49" t="s">
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
         <v>25</v>
       </c>
-      <c r="O49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
       <c r="B50">
         <v>4977</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>12</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>2017</v>
       </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50">
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
         <v>2019</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
         <v>51.880308999999997</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>11.089850999999999</v>
-      </c>
-      <c r="K50">
-        <v>3</v>
       </c>
       <c r="L50">
         <v>3</v>
       </c>
-      <c r="N50" t="s">
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
         <v>25</v>
       </c>
-      <c r="O50" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
       <c r="B51">
         <v>4977</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>12</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2017</v>
       </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51">
+      <c r="F51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51">
         <v>2020</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>51.880308999999997</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>11.089850999999999</v>
       </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
       <c r="L51">
         <v>2</v>
       </c>
-      <c r="N51" t="s">
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
         <v>25</v>
       </c>
-      <c r="O51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
       <c r="B52">
         <v>4977</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>12</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>2017</v>
       </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52">
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52">
         <v>2021</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>51.882669999999997</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>11.087066999999999</v>
-      </c>
-      <c r="K52">
-        <v>3</v>
       </c>
       <c r="L52">
         <v>3</v>
       </c>
-      <c r="N52" t="s">
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
         <v>25</v>
       </c>
-      <c r="O52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53">
         <v>4977</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>12</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>2017</v>
       </c>
-      <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53">
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53">
         <v>2022</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="K53">
+      <c r="I53">
         <v>0</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="N53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>25</v>
       </c>
-      <c r="O53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
       <c r="B54">
         <v>181046</v>
       </c>
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54">
         <v>2018</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
       <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>2023</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
         <v>51.870848000000002</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>11.034416</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
       <c r="L54">
         <v>1</v>
       </c>
-      <c r="N54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
         <v>52</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>64</v>
       </c>
       <c r="B55">
         <v>181053</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>12</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>2018</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
       <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>2022</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>52.275292</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>11.563782</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
       <c r="L55">
         <v>0</v>
       </c>
-      <c r="N55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
         <v>52</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>64</v>
       </c>
       <c r="B56">
         <v>181053</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>12</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>2018</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
       <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>2023</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
         <v>52.306949000000003</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>11.577503999999999</v>
       </c>
-      <c r="K56">
-        <v>2</v>
-      </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>52</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57">
         <v>181099</v>
       </c>
-      <c r="C57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57">
         <v>2018</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
       <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>2022</v>
       </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
         <v>51.993088999999998</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>11.203351</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="N57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>52</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58">
         <v>181099</v>
       </c>
-      <c r="C58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58">
         <v>2018</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
       <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>2023</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
         <v>51.988765999999998</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>11.25046</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
       <c r="L58">
         <v>1</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
         <v>21</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>52</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
       <c r="B59">
         <v>6074</v>
       </c>
-      <c r="C59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59">
         <v>2018</v>
       </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59">
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
         <v>2018</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
         <v>51.888894999999998</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>10.969816</v>
-      </c>
-      <c r="K59">
-        <v>3</v>
       </c>
       <c r="L59">
         <v>3</v>
       </c>
-      <c r="N59" t="s">
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
         <v>25</v>
       </c>
-      <c r="O59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
       <c r="B60">
         <v>6074</v>
       </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60">
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60">
         <v>2018</v>
       </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60">
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60">
         <v>2019</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
         <v>51.886884999999999</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>10.970143999999999</v>
       </c>
-      <c r="K60">
-        <v>2</v>
-      </c>
       <c r="L60">
         <v>2</v>
       </c>
-      <c r="N60" t="s">
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
         <v>25</v>
       </c>
-      <c r="O60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
       <c r="B61">
         <v>20252</v>
       </c>
-      <c r="C61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61">
         <v>2018</v>
       </c>
-      <c r="E61" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61">
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
         <v>2020</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>51.888388999999997</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>10.969023</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
         <v>36</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>37</v>
       </c>
-      <c r="O61" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B62">
         <v>20252</v>
       </c>
-      <c r="C62" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62">
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62">
         <v>2018</v>
       </c>
-      <c r="E62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62">
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62">
         <v>2021</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
         <v>51.888388999999997</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>10.969023</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
       <c r="L62">
         <v>1</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
         <v>53</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>37</v>
       </c>
-      <c r="O62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>192153</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>2019</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
       <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>2022</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
         <v>52.058019000000002</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>11.077802</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
       <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>21</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>52</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
       <c r="B64">
         <v>4977</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>2016</v>
       </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64">
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
         <v>2016</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
       <c r="H64">
         <v>1</v>
       </c>
       <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
         <v>51.945639999999997</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>11.163021000000001</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
       <c r="L64">
         <v>1</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
         <v>21</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>25</v>
       </c>
-      <c r="O64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>34</v>
       </c>
       <c r="B65">
         <v>5046</v>
       </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65">
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65">
         <v>2016</v>
       </c>
-      <c r="E65" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65">
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
         <v>2016</v>
       </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
         <v>51.945639999999997</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>11.163021000000001</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
       <c r="L65">
         <v>1</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
         <v>21</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>25</v>
       </c>
-      <c r="O65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>34</v>
       </c>
       <c r="B66">
         <v>5046</v>
       </c>
-      <c r="C66" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66">
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66">
         <v>2016</v>
       </c>
-      <c r="E66" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66">
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66">
         <v>2017</v>
       </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
         <v>51.945639999999997</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>11.163021000000001</v>
       </c>
-      <c r="K66">
-        <v>2</v>
-      </c>
       <c r="L66">
         <v>2</v>
       </c>
-      <c r="N66" t="s">
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
         <v>25</v>
       </c>
-      <c r="O66" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>34</v>
       </c>
       <c r="B67">
         <v>5046</v>
       </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67">
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67">
         <v>2016</v>
       </c>
-      <c r="E67" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67">
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67">
         <v>2018</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
         <v>51.945639999999997</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>11.163021000000001</v>
       </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
       <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>25</v>
       </c>
-      <c r="O67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>57</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>12</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>2017</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
       <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>2021</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
       <c r="H68">
         <v>1</v>
       </c>
       <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
         <v>51.860416000000001</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>11.218908000000001</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
       <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>56</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>38</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>42</v>
       </c>
       <c r="B69">
         <v>20225</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>12</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>2021</v>
       </c>
-      <c r="E69" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69">
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69">
         <v>2021</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
         <v>52.084747999999998</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>11.13444</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
       <c r="L69">
         <v>1</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
         <v>21</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>37</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>42</v>
       </c>
       <c r="B70">
         <v>20225</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>12</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>2021</v>
       </c>
-      <c r="E70" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70">
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70">
         <v>2022</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
         <v>52.084747999999998</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>11.13444</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
       <c r="L70">
         <v>1</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
         <v>21</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>37</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>42</v>
       </c>
       <c r="B71">
         <v>20225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>2021</v>
       </c>
-      <c r="E71" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71">
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71">
         <v>2023</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
         <v>52.084747999999998</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>11.13444</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>73</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>37</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
       <c r="B72">
         <v>6074</v>
       </c>
-      <c r="C72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72">
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72">
         <v>2020</v>
       </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72">
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72">
         <v>2020</v>
       </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
         <v>51.823613999999999</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>11.090736</v>
       </c>
-      <c r="K72">
-        <v>2</v>
-      </c>
       <c r="L72">
         <v>2</v>
       </c>
-      <c r="N72" t="s">
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
         <v>25</v>
       </c>
-      <c r="O72" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73">
         <v>6074</v>
       </c>
-      <c r="C73" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73">
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73">
         <v>2020</v>
       </c>
-      <c r="E73" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73">
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73">
         <v>2021</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
         <v>51.823613999999999</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>11.090736</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
       <c r="L73">
         <v>1</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>21</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>25</v>
       </c>
-      <c r="O73" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74">
         <v>6074</v>
       </c>
-      <c r="C74" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74">
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74">
         <v>2020</v>
       </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74">
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74">
         <v>2022</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
         <v>51.823321999999997</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>11.090928999999999</v>
       </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
       <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>25</v>
       </c>
-      <c r="O74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75">
         <v>6074</v>
       </c>
-      <c r="C75" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75">
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75">
         <v>2020</v>
       </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75">
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75">
         <v>2023</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
         <v>51.826241000000003</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>11.090757</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
         <v>25</v>
       </c>
-      <c r="O75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76">
         <v>20255</v>
       </c>
-      <c r="C76" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76">
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76">
         <v>2020</v>
       </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76">
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76">
         <v>2020</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
         <v>51.807056000000003</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>11.14085</v>
       </c>
-      <c r="K76">
-        <v>2</v>
-      </c>
       <c r="L76">
         <v>2</v>
       </c>
-      <c r="N76" t="s">
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
         <v>37</v>
       </c>
-      <c r="O76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>28</v>
       </c>
       <c r="B77">
         <v>20255</v>
       </c>
-      <c r="C77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77">
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77">
         <v>2020</v>
       </c>
-      <c r="E77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77">
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77">
         <v>2021</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
         <v>51.807991000000001</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>11.135496</v>
       </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
       <c r="L77">
         <v>2</v>
       </c>
-      <c r="N77" t="s">
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
         <v>37</v>
       </c>
-      <c r="O77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>28</v>
       </c>
       <c r="B78">
         <v>20255</v>
       </c>
-      <c r="C78" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78">
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78">
         <v>2020</v>
       </c>
-      <c r="E78" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78">
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78">
         <v>2022</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
         <v>51.807991000000001</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>11.135496</v>
       </c>
-      <c r="K78">
-        <v>2</v>
-      </c>
       <c r="L78">
         <v>2</v>
       </c>
-      <c r="N78" t="s">
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
         <v>37</v>
       </c>
-      <c r="O78" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
       <c r="B79">
         <v>20255</v>
       </c>
-      <c r="C79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79">
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79">
         <v>2020</v>
       </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79">
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79">
         <v>2023</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
         <v>51.807991000000001</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>11.135496</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
       <c r="L79">
         <v>1</v>
       </c>
-      <c r="N79" t="s">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
         <v>37</v>
       </c>
-      <c r="O79" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>63</v>
       </c>
       <c r="B80">
         <v>192163</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>66</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>2019</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>2022</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
         <v>51.842241999999999</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>11.048263</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="N80" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
         <v>52</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>63</v>
       </c>
       <c r="B81">
         <v>192163</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>66</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>2019</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
       <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
         <v>2023</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
         <v>51.847504999999998</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>11.045021999999999</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
       <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="N81" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
         <v>52</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>50</v>
       </c>
       <c r="B82">
         <v>19187</v>
       </c>
-      <c r="C82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82">
         <v>2021</v>
       </c>
-      <c r="E82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82">
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82">
         <v>2021</v>
       </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
         <v>51.988055000000003</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>11.443527</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
       </c>
       <c r="L82">
         <v>3</v>
       </c>
-      <c r="N82" t="s">
+      <c r="M82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
         <v>37</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>50</v>
       </c>
       <c r="B83">
         <v>19187</v>
       </c>
-      <c r="C83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83">
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83">
         <v>2021</v>
       </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83">
+      <c r="F83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83">
         <v>2022</v>
       </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
         <v>51.988055000000003</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>11.443527</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
       </c>
       <c r="L83">
         <v>3</v>
       </c>
-      <c r="N83" t="s">
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
         <v>37</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>50</v>
       </c>
       <c r="B84">
         <v>19187</v>
       </c>
-      <c r="C84" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84">
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84">
         <v>2021</v>
       </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84">
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84">
         <v>2023</v>
       </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
         <v>51.992016</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>11.442914999999999</v>
       </c>
-      <c r="K84">
-        <v>2</v>
-      </c>
       <c r="L84">
         <v>2</v>
       </c>
-      <c r="N84" t="s">
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
         <v>37</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>67</v>
       </c>
       <c r="B85">
         <v>22113</v>
       </c>
-      <c r="C85" t="s">
-        <v>15</v>
-      </c>
-      <c r="D85">
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85">
         <v>2022</v>
       </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85">
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85">
         <v>2022</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <v>51.995126999999997</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>11.566050000000001</v>
       </c>
-      <c r="K85">
-        <v>2</v>
-      </c>
       <c r="L85">
         <v>2</v>
       </c>
-      <c r="N85" t="s">
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
         <v>37</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>67</v>
       </c>
       <c r="B86">
         <v>22113</v>
       </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86">
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86">
         <v>2022</v>
       </c>
-      <c r="E86" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86">
+      <c r="F86" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86">
         <v>2023</v>
       </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
       <c r="H86">
         <v>1</v>
       </c>
       <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
         <v>51.996369000000001</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>11.559381999999999</v>
       </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
       <c r="L86">
         <v>2</v>
       </c>
-      <c r="N86" t="s">
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
         <v>37</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
       <c r="B87">
         <v>4976</v>
       </c>
-      <c r="C87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87">
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87">
         <v>2019</v>
       </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87">
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87">
         <v>2019</v>
       </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
       <c r="H87">
         <v>1</v>
       </c>
       <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
         <v>51.913573999999997</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>10.951502</v>
       </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
       <c r="L87">
         <v>1</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>21</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>25</v>
       </c>
-      <c r="O87" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
       <c r="B88">
         <v>4976</v>
       </c>
-      <c r="C88" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88">
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88">
         <v>2019</v>
       </c>
-      <c r="E88" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88">
+      <c r="F88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88">
         <v>2020</v>
       </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
       <c r="H88">
         <v>1</v>
       </c>
       <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
         <v>51.913573999999997</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>10.951502</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
       <c r="L88">
         <v>1</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>21</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>25</v>
       </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>17</v>
       </c>
       <c r="B89">
         <v>4974</v>
       </c>
-      <c r="C89" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89">
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89">
         <v>2018</v>
       </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89">
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89">
         <v>2018</v>
       </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
       <c r="H89">
         <v>1</v>
       </c>
       <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
         <v>51.891736000000002</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>10.982707</v>
       </c>
-      <c r="K89">
-        <v>2</v>
-      </c>
       <c r="L89">
         <v>2</v>
       </c>
-      <c r="N89" t="s">
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="O89" t="s">
         <v>25</v>
       </c>
-      <c r="O89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
       <c r="B90">
         <v>4974</v>
       </c>
-      <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90">
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90">
         <v>2018</v>
       </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90">
+      <c r="F90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90">
         <v>2019</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
         <v>51.891430999999997</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>10.981859999999999</v>
       </c>
-      <c r="K90">
-        <v>2</v>
-      </c>
       <c r="L90">
         <v>2</v>
       </c>
-      <c r="N90" t="s">
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
         <v>25</v>
       </c>
-      <c r="O90" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
       <c r="B91">
         <v>4974</v>
       </c>
-      <c r="C91" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91">
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91">
         <v>2018</v>
       </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91">
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91">
         <v>2020</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
         <v>51.890507999999997</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>10.984531</v>
       </c>
-      <c r="K91">
-        <v>2</v>
-      </c>
       <c r="L91">
         <v>2</v>
       </c>
-      <c r="N91" t="s">
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
         <v>25</v>
       </c>
-      <c r="O91" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
       <c r="B92">
         <v>4974</v>
       </c>
-      <c r="C92" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92">
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92">
         <v>2018</v>
       </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92">
+      <c r="F92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92">
         <v>2021</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
         <v>51.891672999999997</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>10.982702</v>
       </c>
-      <c r="K92">
-        <v>2</v>
-      </c>
       <c r="L92">
         <v>2</v>
       </c>
-      <c r="N92" t="s">
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
         <v>25</v>
       </c>
-      <c r="O92" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>68</v>
       </c>
       <c r="B93">
         <v>9910</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>12</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>2022</v>
       </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93">
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93">
         <v>2022</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
         <v>51.765369999999997</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>11.081272999999999</v>
       </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
       <c r="L93">
         <v>1</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
         <v>21</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>69</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>68</v>
       </c>
       <c r="B94">
         <v>9910</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>12</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>2022</v>
       </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94">
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94">
         <v>2023</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
         <v>51.765369999999997</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>11.081272999999999</v>
       </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
       <c r="L94">
         <v>1</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
         <v>21</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>69</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>58</v>
       </c>
       <c r="B95">
         <v>181048</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>12</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>2018</v>
       </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
       <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
         <v>2022</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
         <v>51.939208999999998</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>11.242254000000001</v>
       </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
       <c r="L95">
         <v>1</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
         <v>21</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>52</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>58</v>
       </c>
       <c r="B96">
         <v>181048</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>12</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>2018</v>
       </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
       <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
         <v>2023</v>
       </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
         <v>51.939208999999998</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>11.242254000000001</v>
       </c>
-      <c r="K96">
-        <v>2</v>
-      </c>
       <c r="L96">
         <v>2</v>
       </c>
-      <c r="N96" t="s">
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
         <v>52</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>59</v>
       </c>
       <c r="B97">
         <v>181097</v>
       </c>
-      <c r="C97" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97">
         <v>2018</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
       <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
         <v>2022</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
       <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
-      <c r="N97" t="s">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="O97" t="s">
         <v>52</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>59</v>
       </c>
       <c r="B98">
         <v>181097</v>
       </c>
-      <c r="C98" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98">
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
         <v>2018</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
       <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
         <v>2023</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="N98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="O98" t="s">
         <v>52</v>
       </c>
-      <c r="O98" t="s">
+      <c r="P98" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O102">
-    <sortCondition ref="A2:A102"/>
-  </sortState>
+  <autoFilter ref="A1:P98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="12">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest latitude in decimal degrees (WGS84)" sqref="I1 I9:I10 I12:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest latitude in decimal degrees (WGS84)" sqref="J1 J9:J10 J12:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>30</formula1>
       <formula2>50</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest longitude in decimal degrees (WGS84)" sqref="J1 J9:J10 J12:J14 J21:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest longitude in decimal degrees (WGS84)" sqref="K1 K9:K10 K12:K14 K21:K1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>20</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for a bird, should match with info provided in Movebank" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for the tag, should match with info provided in Movebank" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sex of the bird (m or f)" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Year when the bird was tagged" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A unique identifier for the tag, should match with info provided in Movebank" sqref="B1:B99 C1 C5:C99 B100:C1048576" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sex of the bird (m or f)" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Year when the bird was tagged" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>2000</formula1>
       <formula2>2023</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Age of the bird (in years) at the time of tagging" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Current year for which home range and nest information is provided" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Age of the bird (in years) at the time of tagging" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Current year for which home range and nest information is provided" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>2000</formula1>
       <formula2>2023</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird exhibit home ranging behaviour in this year (1 = yes, 0 = no)" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird exhibit home ranging behaviour in this year (1 = yes, 0 = no)" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird initiate a breeding attempt (e.g. a nest with eggs) in this year (1=yes, 0=no)?" sqref="H1:H1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please only enter a 0 or a 1" prompt="Did this bird initiate a breeding attempt (e.g. a nest with eggs) in this year (1=yes, 0=no)?" sqref="I1:I1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of chicks observed in the nest" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of chicks observed in the nest" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of fledglings that fledged from the nest (if the nest failed enter a 0)" sqref="L1:L1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="N of fledglings that fledged from the nest (if the nest failed enter a 0)" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>

--- a/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
+++ b/data/REKI_NestTool_ValidationDataTemplate_RMZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vogelwarte-my.sharepoint.com/personal/steffen_oppel_vogelwarte_ch/Documents/REKI/Analysis/NestTool2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC628A61-40B5-4479-8CA1-3F5B65C36B1B}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_D672A13596F2B9EEB1DC98D92A10C74A5CB812CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{737257C1-6DBC-41D6-8B7B-F05B66427644}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,12 +156,6 @@
     <t>Halberstadt_02</t>
   </si>
   <si>
-    <t>Ottleben</t>
-  </si>
-  <si>
-    <t>Harsleben Mostrichmühle 1</t>
-  </si>
-  <si>
     <t>AUKO 45</t>
   </si>
   <si>
@@ -256,6 +250,12 @@
   </si>
   <si>
     <t>Harsleben Hammmelsberg</t>
+  </si>
+  <si>
+    <t>Ottleben 1</t>
+  </si>
+  <si>
+    <t>Mostrichmühle</t>
   </si>
 </sst>
 </file>
@@ -627,12 +627,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD128"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,9 +696,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>192164</v>
@@ -706,7 +707,7 @@
         <v>1933</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E2">
         <v>2019</v>
@@ -736,15 +737,15 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>192164</v>
@@ -753,7 +754,7 @@
         <v>1933</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>2019</v>
@@ -777,15 +778,15 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>181038</v>
@@ -794,7 +795,7 @@
         <v>8070</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -824,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -877,7 +878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -921,7 +922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -968,7 +969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1147,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>20329</v>
@@ -1185,12 +1186,12 @@
         <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>20329</v>
@@ -1229,12 +1230,12 @@
         <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>20329</v>
@@ -1270,18 +1271,18 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O14" t="s">
         <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>20330</v>
@@ -1320,12 +1321,12 @@
         <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>212786</v>
@@ -1361,15 +1362,15 @@
         <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>212786</v>
@@ -1405,15 +1406,15 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>212786</v>
@@ -1449,15 +1450,15 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>212787</v>
@@ -1493,15 +1494,15 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>212787</v>
@@ -1537,15 +1538,15 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>181080</v>
@@ -1581,15 +1582,15 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>181080</v>
@@ -1625,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P22" t="s">
         <v>39</v>
@@ -1675,7 +1676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2329,7 +2330,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2369,7 +2370,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>21215</v>
@@ -2405,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O40" t="s">
         <v>37</v>
@@ -2416,7 +2417,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>21215</v>
@@ -2452,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O41" t="s">
         <v>37</v>
@@ -2463,7 +2464,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>21215</v>
@@ -2499,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O42" t="s">
         <v>37</v>
@@ -2508,9 +2509,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>4975</v>
@@ -2552,9 +2553,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>4975</v>
@@ -2598,7 +2599,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>20254</v>
@@ -2643,9 +2644,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>212785</v>
@@ -2684,15 +2685,15 @@
         <v>21</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>212785</v>
@@ -2731,13 +2732,13 @@
         <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P47" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2995,9 +2996,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54">
         <v>181046</v>
@@ -3033,15 +3034,15 @@
         <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P54" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>181053</v>
@@ -3077,15 +3078,15 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B56">
         <v>181053</v>
@@ -3121,15 +3122,15 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P56" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>181099</v>
@@ -3165,15 +3166,15 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>181099</v>
@@ -3212,13 +3213,13 @@
         <v>21</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O62" t="s">
         <v>37</v>
@@ -3400,9 +3401,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>192153</v>
@@ -3441,13 +3442,13 @@
         <v>21</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P63" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>34</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>34</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -3629,12 +3630,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
@@ -3667,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O68" t="s">
         <v>38</v>
@@ -3678,7 +3679,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>20225</v>
@@ -3720,12 +3721,12 @@
         <v>37</v>
       </c>
       <c r="P69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>20225</v>
@@ -3767,12 +3768,12 @@
         <v>37</v>
       </c>
       <c r="P70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>20225</v>
@@ -3802,16 +3803,16 @@
         <v>11.13444</v>
       </c>
       <c r="N71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O71" t="s">
         <v>37</v>
       </c>
       <c r="P71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>33</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>33</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>33</v>
       </c>
@@ -4166,15 +4167,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B80">
         <v>192163</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E80">
         <v>2019</v>
@@ -4204,21 +4205,21 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B81">
         <v>192163</v>
       </c>
       <c r="D81" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E81">
         <v>2019</v>
@@ -4248,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P81" t="s">
         <v>39</v>
@@ -4256,7 +4257,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B82">
         <v>19187</v>
@@ -4295,12 +4296,12 @@
         <v>37</v>
       </c>
       <c r="P82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B83">
         <v>19187</v>
@@ -4339,12 +4340,12 @@
         <v>37</v>
       </c>
       <c r="P83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84">
         <v>19187</v>
@@ -4383,12 +4384,12 @@
         <v>37</v>
       </c>
       <c r="P84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B85">
         <v>22113</v>
@@ -4432,7 +4433,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B86">
         <v>22113</v>
@@ -4474,7 +4475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>17</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>17</v>
       </c>
@@ -4656,7 +4657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -4744,9 +4745,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B93">
         <v>9910</v>
@@ -4785,15 +4786,15 @@
         <v>21</v>
       </c>
       <c r="O93" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P93" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B94">
         <v>9910</v>
@@ -4832,15 +4833,15 @@
         <v>21</v>
       </c>
       <c r="O94" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P94" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B95">
         <v>181048</v>
@@ -4879,15 +4880,15 @@
         <v>21</v>
       </c>
       <c r="O95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P95" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B96">
         <v>181048</v>
@@ -4923,15 +4924,15 @@
         <v>2</v>
       </c>
       <c r="O96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P96" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B97">
         <v>181097</v>
@@ -4961,15 +4962,15 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P97" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98">
         <v>181097</v>
@@ -4999,14 +5000,20 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P98" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P98" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Anitra"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="12">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="nest latitude in decimal degrees (WGS84)" sqref="J1 J9:J10 J12:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>30</formula1>
